--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DPbES Dispatch Priority by Electricity Source</t>
   </si>
@@ -103,11 +108,23 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Dispatch Priority (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,11 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,6 +180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,17 +572,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -2593,6 +2619,453 @@
       <c r="AK14">
         <f t="shared" si="4"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AK15" si="5">C11</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:AK16" si="6">C11</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:AK17" si="7">C9</f>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2853,13 +3326,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C8F1F0-B77F-484A-BDDD-6C0325ADB8E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358C1F4D-4B63-4704-9A42-2490BF3F25B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668ECB61-D798-4C15-B435-0D6F26C8CE3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA91C13-4E66-4724-9EB9-720D0A047543}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E8B346-82A4-4AB7-954D-905C02057CF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E221A8A-B9D9-4D58-9CC4-C52681123A8E}"/>
 </file>
--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_D266362D8FF193AA0856DF8B26466D6157EF2312" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A671CD63-210D-4487-A122-1094DE479D0B}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,6 +273,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -299,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,10 +517,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -568,13 +611,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -700,147 +745,147 @@
         <v>26</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AK9" si="0">$B2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -848,147 +893,147 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R12" si="1">$B3</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1144,147 +1189,147 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -1736,147 +1781,147 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK12" si="2">$B9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -2329,147 +2374,147 @@
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:AK13" si="3">C2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -2626,8 +2671,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <f>B11</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:AK15" si="5">C11</f>
@@ -2775,8 +2819,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <f>B11</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:AK16" si="6">C11</f>
@@ -2924,15 +2967,14 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <f>B9</f>
         <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:AK17" si="7">C9</f>
+        <f>$B$17</f>
         <v>3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D17:AK17" si="7">$B$17</f>
         <v>3</v>
       </c>
       <c r="E17">
@@ -3074,6 +3116,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3307,32 +3367,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358C1F4D-4B63-4704-9A42-2490BF3F25B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E221A8A-B9D9-4D58-9CC4-C52681123A8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA91C13-4E66-4724-9EB9-720D0A047543}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA91C13-4E66-4724-9EB9-720D0A047543}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E221A8A-B9D9-4D58-9CC4-C52681123A8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358C1F4D-4B63-4704-9A42-2490BF3F25B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\DPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D266362D8FF193AA0856DF8B26466D6157EF2312" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A671CD63-210D-4487-A122-1094DE479D0B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_D266362D8FF193AA0856DF8B26466D6157EF2312" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA5A0638-4367-4F8A-BFFE-4509B8BEAE35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="1095" windowWidth="19230" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -180,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -618,7 +628,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,137 +765,134 @@
         <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>2</v>
       </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:AK2" si="1">H2</f>
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AK2" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -896,67 +903,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <f t="shared" ref="C3:R12" si="2">$B3</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S3">
@@ -1044,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D4">
@@ -1192,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D5">
@@ -1340,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D6">
@@ -1488,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D7">
@@ -1636,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D8">
@@ -1784,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D9">
@@ -1916,11 +1923,11 @@
         <v>5</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK12" si="2">$B9</f>
+        <f t="shared" ref="D9:AK12" si="3">$B9</f>
         <v>5</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1932,143 +1939,143 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2077,147 +2084,147 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2228,143 +2235,143 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2377,144 +2384,144 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:AK13" si="3">C2</f>
+        <f t="shared" ref="C13:AK13" si="4">C2</f>
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -2526,143 +2533,143 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:AK14" si="4">C6</f>
+        <f t="shared" ref="C14:AK14" si="5">C6</f>
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2674,144 +2681,144 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AK15" si="5">C11</f>
-        <v>1</v>
+        <f t="shared" ref="C15:AK15" si="6">C11</f>
+        <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="T15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2822,144 +2829,144 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:AK16" si="6">C11</f>
-        <v>1</v>
+        <f t="shared" ref="C16:AK16" si="7">C11</f>
+        <v>2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -2974,139 +2981,139 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:AK17" si="7">$B$17</f>
+        <f t="shared" ref="D17:AK17" si="8">$B$17</f>
         <v>3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="T17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="X17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -3125,15 +3132,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3367,6 +3365,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E221A8A-B9D9-4D58-9CC4-C52681123A8E}">
   <ds:schemaRefs>
@@ -3378,14 +3385,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA91C13-4E66-4724-9EB9-720D0A047543}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358C1F4D-4B63-4704-9A42-2490BF3F25B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3403,4 +3402,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA91C13-4E66-4724-9EB9-720D0A047543}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>